--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43013,6 +43013,41 @@
         <v>365900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>117900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43048,6 +43048,41 @@
         <v>117900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>617800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43083,6 +43083,41 @@
         <v>617800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>478900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43118,6 +43118,41 @@
         <v>478900</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>163800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43153,6 +43153,41 @@
         <v>163800</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>104700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43188,6 +43188,41 @@
         <v>104700</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>3319100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43223,6 +43223,41 @@
         <v>3319100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>118900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43258,6 +43258,41 @@
         <v>118900</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>172900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43293,6 +43293,41 @@
         <v>172900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>494800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43328,6 +43328,41 @@
         <v>494800</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1118100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43363,6 +43363,41 @@
         <v>1118100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>436700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43398,6 +43398,41 @@
         <v>436700</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>432500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43433,6 +43433,76 @@
         <v>432500</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>203700</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>2863300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43503,6 +43503,76 @@
         <v>2863300</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>4876200</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>720000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43573,6 +43573,41 @@
         <v>720000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>533900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43608,6 +43608,41 @@
         <v>533900</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>567900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43643,6 +43643,41 @@
         <v>567900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>633400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43678,6 +43678,41 @@
         <v>633400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1600200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43713,6 +43713,76 @@
         <v>1600200</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>553200</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2459200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43783,6 +43783,41 @@
         <v>2459200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>2166900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43818,6 +43818,41 @@
         <v>2166900</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>19581800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2557"/>
+  <dimension ref="A1:I2558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89913,6 +89913,41 @@
         <v>19581800</v>
       </c>
     </row>
+    <row r="2558">
+      <c r="A2558" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2558" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2558" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D2558" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E2558" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2558" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2558" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H2558" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2558" t="n">
+        <v>4543900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2558"/>
+  <dimension ref="A1:I2559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89948,6 +89948,41 @@
         <v>4543900</v>
       </c>
     </row>
+    <row r="2559">
+      <c r="A2559" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2559" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D2559" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E2559" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2559" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2559" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2559" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2559" t="n">
+        <v>2988600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2559"/>
+  <dimension ref="A1:I2560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89983,6 +89983,41 @@
         <v>2988600</v>
       </c>
     </row>
+    <row r="2560">
+      <c r="A2560" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2560" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2560" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D2560" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E2560" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2560" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2560" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2560" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2560" t="n">
+        <v>3330300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2560"/>
+  <dimension ref="A1:I2561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90018,6 +90018,41 @@
         <v>3330300</v>
       </c>
     </row>
+    <row r="2561">
+      <c r="A2561" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2561" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2561" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D2561" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E2561" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2561" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2561" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2561" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2561" t="n">
+        <v>3726900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2561"/>
+  <dimension ref="A1:I2562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90053,6 +90053,41 @@
         <v>3726900</v>
       </c>
     </row>
+    <row r="2562">
+      <c r="A2562" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2562" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D2562" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E2562" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2562" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2562" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2562" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2562" t="n">
+        <v>2744500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2562"/>
+  <dimension ref="A1:I2563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90088,6 +90088,41 @@
         <v>2744500</v>
       </c>
     </row>
+    <row r="2563">
+      <c r="A2563" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2563" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D2563" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E2563" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F2563" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2563" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2563" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2563" t="n">
+        <v>2641700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2563"/>
+  <dimension ref="A1:I2564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90123,6 +90123,41 @@
         <v>2641700</v>
       </c>
     </row>
+    <row r="2564">
+      <c r="A2564" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2564" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D2564" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E2564" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2564" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G2564" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2564" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2564" t="n">
+        <v>1236100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2564"/>
+  <dimension ref="A1:I2565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90158,6 +90158,41 @@
         <v>1236100</v>
       </c>
     </row>
+    <row r="2565">
+      <c r="A2565" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2565" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D2565" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E2565" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2565" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G2565" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2565" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2565" t="n">
+        <v>1959100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2565"/>
+  <dimension ref="A1:I2566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90193,6 +90193,41 @@
         <v>1959100</v>
       </c>
     </row>
+    <row r="2566">
+      <c r="A2566" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2566" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2566" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D2566" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E2566" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2566" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G2566" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2566" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2566" t="n">
+        <v>1706500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2566"/>
+  <dimension ref="A1:I2567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90228,6 +90228,41 @@
         <v>1706500</v>
       </c>
     </row>
+    <row r="2567">
+      <c r="A2567" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2567" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D2567" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E2567" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2567" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2567" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H2567" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2567" t="n">
+        <v>4876700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2567"/>
+  <dimension ref="A1:I2568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90263,6 +90263,41 @@
         <v>4876700</v>
       </c>
     </row>
+    <row r="2568">
+      <c r="A2568" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2568" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2568" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D2568" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E2568" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2568" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G2568" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2568" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2568" t="n">
+        <v>2904400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2568"/>
+  <dimension ref="A1:I2569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90298,6 +90298,41 @@
         <v>2904400</v>
       </c>
     </row>
+    <row r="2569">
+      <c r="A2569" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2569" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2569" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D2569" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E2569" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2569" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2569" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2569" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2569" t="n">
+        <v>1584100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2569"/>
+  <dimension ref="A1:I2570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90333,6 +90333,41 @@
         <v>1584100</v>
       </c>
     </row>
+    <row r="2570">
+      <c r="A2570" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2570" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2570" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D2570" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E2570" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2570" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G2570" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2570" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2570" t="n">
+        <v>5136600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2570"/>
+  <dimension ref="A1:I2571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90368,6 +90368,41 @@
         <v>5136600</v>
       </c>
     </row>
+    <row r="2571">
+      <c r="A2571" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2571" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2571" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D2571" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E2571" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2571" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2571" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2571" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2571" t="n">
+        <v>3520200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7070.xlsx
+++ b/data/7070.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2571"/>
+  <dimension ref="A1:I2572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90403,6 +90403,41 @@
         <v>3520200</v>
       </c>
     </row>
+    <row r="2572">
+      <c r="A2572" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2572" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2572" t="inlineStr">
+        <is>
+          <t>7070</t>
+        </is>
+      </c>
+      <c r="D2572" t="inlineStr">
+        <is>
+          <t>VIZIONE</t>
+        </is>
+      </c>
+      <c r="E2572" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2572" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2572" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H2572" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2572" t="n">
+        <v>2190100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
